--- a/Artefatos de Documentação/Processo Genérico/6-Verificacao e Validacao/Templates/Casos de Teste.xlsx
+++ b/Artefatos de Documentação/Processo Genérico/6-Verificacao e Validacao/Templates/Casos de Teste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -72,19 +72,13 @@
   </si>
   <si>
     <t>&lt;Caso falhe, referênciar o caso de anomalia relacionado a este caso de teste&gt;</t>
-  </si>
-  <si>
-    <t>Data da última modificação</t>
-  </si>
-  <si>
-    <t>__/__/____</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +86,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,11 +117,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,18 +159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,34 +176,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:I19" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I19">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Funcionalidade"/>
-    <tableColumn id="2" name="ID "/>
-    <tableColumn id="3" name="Objetivo"/>
-    <tableColumn id="4" name="Cenário/Condição(ões)"/>
-    <tableColumn id="5" name="Entrada(s)"/>
-    <tableColumn id="6" name="Saída(s) Esperada"/>
-    <tableColumn id="7" name="Passou/Falhou"/>
-    <tableColumn id="8" name="Relato de Anomalia"/>
-    <tableColumn id="9" name="Data da última modificação"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,68 +460,111 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>